--- a/Parameters Table-Organized and Synthesized.xlsx
+++ b/Parameters Table-Organized and Synthesized.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED1AB660-9398-47A7-8E1C-C671AA8C53BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76A4D9C-121D-469F-9964-4F2D865492DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -686,12 +686,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -699,6 +693,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1044,7 +1044,7 @@
   </sheetPr>
   <dimension ref="A1:H25133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1098,7 +1098,7 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="74.25" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="42" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1119,12 +1119,12 @@
       <c r="G3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="43" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60">
-      <c r="A4" s="44"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="37" t="s">
         <v>17</v>
       </c>
@@ -1143,17 +1143,17 @@
       <c r="G4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="45"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="44"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="22"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="35"/>
-      <c r="H5" s="45"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="13" t="s">
@@ -1168,7 +1168,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="45">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="45" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -1186,15 +1186,15 @@
       <c r="F7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="44" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60">
-      <c r="A8" s="42"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="11" t="s">
         <v>29</v>
       </c>
@@ -1210,11 +1210,11 @@
       <c r="F8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="44"/>
     </row>
     <row r="9" spans="1:8" ht="75">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1232,11 +1232,11 @@
       <c r="F9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:8" ht="75">
-      <c r="A10" s="44"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="11" t="s">
         <v>40</v>
       </c>
@@ -1252,11 +1252,11 @@
       <c r="F10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" spans="1:8" ht="75">
-      <c r="A11" s="44"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="10" t="s">
         <v>45</v>
       </c>
@@ -1272,11 +1272,11 @@
       <c r="F11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1">
-      <c r="A12" s="44"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="3"/>
       <c r="C12" s="12"/>
       <c r="D12" s="27"/>
@@ -1298,7 +1298,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="45" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="45" t="s">
         <v>49</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1316,15 +1316,15 @@
       <c r="F14" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="44" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="90">
-      <c r="A15" s="42"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="11" t="s">
         <v>54</v>
       </c>
@@ -1340,11 +1340,11 @@
       <c r="F15" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:8" ht="120">
-      <c r="A16" s="42"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="10" t="s">
         <v>57</v>
       </c>
@@ -1360,11 +1360,11 @@
       <c r="F16" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
     </row>
     <row r="17" spans="1:8" ht="75">
-      <c r="A17" s="42"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="11" t="s">
         <v>40</v>
       </c>
@@ -1380,11 +1380,11 @@
       <c r="F17" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
     </row>
     <row r="18" spans="1:8" ht="39.950000000000003" customHeight="1">
-      <c r="A18" s="42"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="10"/>
       <c r="C18" s="9"/>
       <c r="D18" s="23"/>
@@ -1406,7 +1406,7 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="30">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="42" t="s">
         <v>62</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -1430,7 +1430,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="75" customHeight="1">
-      <c r="A21" s="44"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="9" t="s">
         <v>69</v>
       </c>
@@ -1453,7 +1453,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1">
-      <c r="A22" s="44"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="3"/>
       <c r="C22" s="12"/>
       <c r="D22" s="22"/>
@@ -1475,7 +1475,7 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="75">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="45" t="s">
         <v>74</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -1501,7 +1501,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="75">
-      <c r="A25" s="42"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="12" t="s">
         <v>80</v>
       </c>
@@ -1523,7 +1523,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="42"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="10"/>
       <c r="C26" s="9"/>
       <c r="D26" s="23"/>
@@ -76862,17 +76862,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="G7:G11"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="48" orientation="portrait" r:id="rId1"/>

--- a/Parameters Table-Organized and Synthesized.xlsx
+++ b/Parameters Table-Organized and Synthesized.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76A4D9C-121D-469F-9964-4F2D865492DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321DECC9-BF35-4B80-B961-EC97291623F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
   <si>
     <t>Factors</t>
   </si>
@@ -386,6 +386,9 @@
   <si>
     <t>Reservoir Object</t>
   </si>
+  <si>
+    <t>Water Conversion Rates</t>
+  </si>
 </sst>
 </file>
 
@@ -686,6 +689,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -693,12 +702,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1044,7 +1047,9 @@
   </sheetPr>
   <dimension ref="A1:H25133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1098,7 +1103,7 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="74.25" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1119,12 +1124,12 @@
       <c r="G3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="45" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60">
-      <c r="A4" s="42"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="37" t="s">
         <v>17</v>
       </c>
@@ -1143,17 +1148,17 @@
       <c r="G4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="43"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="42"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="22"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="35"/>
-      <c r="H5" s="43"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="13" t="s">
@@ -1168,7 +1173,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="45">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="42" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -1186,15 +1191,15 @@
       <c r="F7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="46" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60">
-      <c r="A8" s="45"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="11" t="s">
         <v>29</v>
       </c>
@@ -1210,11 +1215,11 @@
       <c r="F8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="44"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" spans="1:8" ht="75">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="44" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1232,11 +1237,11 @@
       <c r="F9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="44"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="46"/>
     </row>
     <row r="10" spans="1:8" ht="75">
-      <c r="A10" s="42"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="11" t="s">
         <v>40</v>
       </c>
@@ -1252,11 +1257,11 @@
       <c r="F10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="44"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" spans="1:8" ht="75">
-      <c r="A11" s="42"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="10" t="s">
         <v>45</v>
       </c>
@@ -1272,11 +1277,11 @@
       <c r="F11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="44"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1">
-      <c r="A12" s="42"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="3"/>
       <c r="C12" s="12"/>
       <c r="D12" s="27"/>
@@ -1298,7 +1303,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="45" customHeight="1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="42" t="s">
         <v>49</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1311,20 +1316,20 @@
         <v>52</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="46" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="90">
-      <c r="A15" s="45"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="11" t="s">
         <v>54</v>
       </c>
@@ -1340,11 +1345,11 @@
       <c r="F15" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="16" spans="1:8" ht="120">
-      <c r="A16" s="45"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="10" t="s">
         <v>57</v>
       </c>
@@ -1360,11 +1365,11 @@
       <c r="F16" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" spans="1:8" ht="75">
-      <c r="A17" s="45"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="11" t="s">
         <v>40</v>
       </c>
@@ -1380,11 +1385,11 @@
       <c r="F17" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
     </row>
     <row r="18" spans="1:8" ht="39.950000000000003" customHeight="1">
-      <c r="A18" s="45"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="10"/>
       <c r="C18" s="9"/>
       <c r="D18" s="23"/>
@@ -1406,7 +1411,7 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="30">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="44" t="s">
         <v>62</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -1430,7 +1435,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="75" customHeight="1">
-      <c r="A21" s="42"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="9" t="s">
         <v>69</v>
       </c>
@@ -1453,7 +1458,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1">
-      <c r="A22" s="42"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="3"/>
       <c r="C22" s="12"/>
       <c r="D22" s="22"/>
@@ -1475,7 +1480,7 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="75">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="42" t="s">
         <v>74</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -1501,7 +1506,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="75">
-      <c r="A25" s="45"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="12" t="s">
         <v>80</v>
       </c>
@@ -1523,7 +1528,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="45"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="10"/>
       <c r="C26" s="9"/>
       <c r="D26" s="23"/>
@@ -76862,17 +76867,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="G7:G11"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="48" orientation="portrait" r:id="rId1"/>
